--- a/media/rmg_download_ur.xlsx
+++ b/media/rmg_download_ur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2356113-379D-3749-83ED-E5F6AB2AE051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE38DE0-C0E2-A94D-A3B3-A21B951D0723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{ED866EA8-637B-4A18-9E36-ACF0F4474D22}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{ED866EA8-637B-4A18-9E36-ACF0F4474D22}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>АКТ</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>сверки по объектам юр. лиц</t>
+  </si>
+  <si>
+    <t>СОГЛАСОВАНО:</t>
+  </si>
+  <si>
+    <t>Исполнительный директор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Генеральный директор </t>
+  </si>
+  <si>
+    <t>ТОО "Кузет - Сенім"</t>
+  </si>
+  <si>
+    <t>ТОО «RMG GROUP»</t>
+  </si>
+  <si>
+    <t>_______________Иванова Л.В.</t>
+  </si>
+  <si>
+    <t>________________Гадаборшев Х.С.</t>
+  </si>
+  <si>
+    <t>Примечание</t>
   </si>
 </sst>
 </file>
@@ -162,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -197,6 +221,19 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DEEEC-4E35-4A4D-A02D-1E0DD01C321F}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -531,10 +568,11 @@
     <col min="9" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -547,152 +585,171 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="M9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
@@ -700,8 +757,73 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="7"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/media/rmg_download_ur.xlsx
+++ b/media/rmg_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE38DE0-C0E2-A94D-A3B3-A21B951D0723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1328249-3B39-FD4B-8680-16369ECFC906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{ED866EA8-637B-4A18-9E36-ACF0F4474D22}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>АКТ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>№ объекта</t>
   </si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>Сумма в месяц</t>
-  </si>
-  <si>
-    <t>сверки по объектам юр. лиц</t>
   </si>
   <si>
     <t>СОГЛАСОВАНО:</t>
@@ -186,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -230,10 +224,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +549,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A7" sqref="A7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,16 +584,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -606,7 +603,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -614,7 +611,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -624,7 +621,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -632,7 +629,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -642,7 +639,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -650,7 +647,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -662,9 +659,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -674,20 +669,19 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -705,43 +699,43 @@
     </row>
     <row r="9" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -821,8 +815,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
